--- a/artfynd/A 63171-2018.xlsx
+++ b/artfynd/A 63171-2018.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112165478</v>
+        <v>112165405</v>
       </c>
       <c r="B2" t="n">
         <v>77515</v>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>333707.3727166551</v>
+        <v>333616.9442266118</v>
       </c>
       <c r="R2" t="n">
-        <v>6627023.754793136</v>
+        <v>6627002.560107965</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -796,7 +796,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112165405</v>
+        <v>112165478</v>
       </c>
       <c r="B3" t="n">
         <v>77515</v>
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>333616.9442266118</v>
+        <v>333707.3727166551</v>
       </c>
       <c r="R3" t="n">
-        <v>6627002.560107965</v>
+        <v>6627023.754793136</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>

--- a/artfynd/A 63171-2018.xlsx
+++ b/artfynd/A 63171-2018.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112165405</v>
+        <v>112165478</v>
       </c>
       <c r="B2" t="n">
         <v>77515</v>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>333616.9442266118</v>
+        <v>333707</v>
       </c>
       <c r="R2" t="n">
-        <v>6627002.560107965</v>
+        <v>6627024</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -756,19 +756,9 @@
           <t>2022-06-07</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2022-06-07</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -796,7 +786,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112165478</v>
+        <v>112165405</v>
       </c>
       <c r="B3" t="n">
         <v>77515</v>
@@ -839,10 +829,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>333707.3727166551</v>
+        <v>333617</v>
       </c>
       <c r="R3" t="n">
-        <v>6627023.754793136</v>
+        <v>6627003</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -872,19 +862,9 @@
           <t>2022-06-07</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2022-06-07</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -912,10 +892,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112164902</v>
+        <v>112165178</v>
       </c>
       <c r="B4" t="n">
-        <v>96348</v>
+        <v>95200</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -924,25 +904,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>220787</v>
+        <v>2389</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Purpurmylia</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Mylia taylorii</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Hook.) Gray</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -956,10 +936,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>333235.1494086513</v>
+        <v>333515</v>
       </c>
       <c r="R4" t="n">
-        <v>6626921.223689788</v>
+        <v>6626887</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -989,19 +969,14 @@
           <t>2022-06-07</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2022-06-07</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>På murken låga</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1029,10 +1004,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112165178</v>
+        <v>112164902</v>
       </c>
       <c r="B5" t="n">
-        <v>95200</v>
+        <v>96348</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1041,25 +1016,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2389</v>
+        <v>220787</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Purpurmylia</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Mylia taylorii</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Hook.) Gray</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1073,10 +1048,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>333515.2399351808</v>
+        <v>333235</v>
       </c>
       <c r="R5" t="n">
-        <v>6626887.493399483</v>
+        <v>6626921</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1106,24 +1081,9 @@
           <t>2022-06-07</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2022-06-07</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>På murken låga</t>
         </is>
       </c>
       <c r="AD5" t="b">

--- a/artfynd/A 63171-2018.xlsx
+++ b/artfynd/A 63171-2018.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112165478</v>
+        <v>112164902</v>
       </c>
       <c r="B2" t="n">
-        <v>77515</v>
+        <v>96720</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,30 +692,31 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -723,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>333707</v>
+        <v>333235</v>
       </c>
       <c r="R2" t="n">
-        <v>6627024</v>
+        <v>6626921</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -786,10 +787,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112165405</v>
+        <v>112165478</v>
       </c>
       <c r="B3" t="n">
-        <v>77515</v>
+        <v>77636</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -829,10 +830,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>333617</v>
+        <v>333707</v>
       </c>
       <c r="R3" t="n">
-        <v>6627003</v>
+        <v>6627024</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -895,7 +896,7 @@
         <v>112165178</v>
       </c>
       <c r="B4" t="n">
-        <v>95200</v>
+        <v>95355</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1004,10 +1005,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112164902</v>
+        <v>112165405</v>
       </c>
       <c r="B5" t="n">
-        <v>96348</v>
+        <v>77636</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1016,31 +1017,30 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1048,10 +1048,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>333235</v>
+        <v>333617</v>
       </c>
       <c r="R5" t="n">
-        <v>6626921</v>
+        <v>6627003</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>

--- a/artfynd/A 63171-2018.xlsx
+++ b/artfynd/A 63171-2018.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112164902</v>
+        <v>112165478</v>
       </c>
       <c r="B2" t="n">
-        <v>96720</v>
+        <v>77650</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,31 +692,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -724,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>333235</v>
+        <v>333707</v>
       </c>
       <c r="R2" t="n">
-        <v>6626921</v>
+        <v>6627024</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -787,10 +786,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112165478</v>
+        <v>112165405</v>
       </c>
       <c r="B3" t="n">
-        <v>77636</v>
+        <v>77650</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -830,10 +829,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>333707</v>
+        <v>333617</v>
       </c>
       <c r="R3" t="n">
-        <v>6627024</v>
+        <v>6627003</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -893,10 +892,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112165178</v>
+        <v>112164902</v>
       </c>
       <c r="B4" t="n">
-        <v>95355</v>
+        <v>96735</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -905,25 +904,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2389</v>
+        <v>220787</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Purpurmylia</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Mylia taylorii</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Hook.) Gray</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -937,10 +936,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>333515</v>
+        <v>333235</v>
       </c>
       <c r="R4" t="n">
-        <v>6626887</v>
+        <v>6626921</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -973,11 +972,6 @@
       <c r="AA4" t="inlineStr">
         <is>
           <t>2022-06-07</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>På murken låga</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1005,10 +999,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112165405</v>
+        <v>112165178</v>
       </c>
       <c r="B5" t="n">
-        <v>77636</v>
+        <v>95369</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1017,30 +1011,31 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>2389</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Purpurmylia</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Mylia taylorii</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hook.) Gray</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1048,10 +1043,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>333617</v>
+        <v>333515</v>
       </c>
       <c r="R5" t="n">
-        <v>6627003</v>
+        <v>6626887</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1084,6 +1079,11 @@
       <c r="AA5" t="inlineStr">
         <is>
           <t>2022-06-07</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>På murken låga</t>
         </is>
       </c>
       <c r="AD5" t="b">

--- a/artfynd/A 63171-2018.xlsx
+++ b/artfynd/A 63171-2018.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112165478</v>
+        <v>112165178</v>
       </c>
       <c r="B2" t="n">
-        <v>77650</v>
+        <v>95369</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,30 +692,31 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>2389</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Purpurmylia</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Mylia taylorii</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hook.) Gray</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -723,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>333707</v>
+        <v>333515</v>
       </c>
       <c r="R2" t="n">
-        <v>6627024</v>
+        <v>6626887</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -759,6 +760,11 @@
       <c r="AA2" t="inlineStr">
         <is>
           <t>2022-06-07</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>På murken låga</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -786,7 +792,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112165405</v>
+        <v>112165478</v>
       </c>
       <c r="B3" t="n">
         <v>77650</v>
@@ -829,10 +835,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>333617</v>
+        <v>333707</v>
       </c>
       <c r="R3" t="n">
-        <v>6627003</v>
+        <v>6627024</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -999,10 +1005,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112165178</v>
+        <v>112165405</v>
       </c>
       <c r="B5" t="n">
-        <v>95369</v>
+        <v>77650</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1011,31 +1017,30 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2389</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Purpurmylia</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Mylia taylorii</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Hook.) Gray</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1043,10 +1048,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>333515</v>
+        <v>333617</v>
       </c>
       <c r="R5" t="n">
-        <v>6626887</v>
+        <v>6627003</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1079,11 +1084,6 @@
       <c r="AA5" t="inlineStr">
         <is>
           <t>2022-06-07</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>På murken låga</t>
         </is>
       </c>
       <c r="AD5" t="b">
